--- a/results/mp/logistic/corona/confidence/84/masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
@@ -88,21 +88,21 @@
     <t>co</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -115,79 +115,70 @@
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -545,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +547,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.815068493150685</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -664,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7894736842105263</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,13 +679,13 @@
         <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7837837837837838</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +779,13 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -832,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
@@ -864,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5767195767195767</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C8">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.793733681462141</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.576271186440678</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.7890625</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5098039215686274</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="C11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4496644295302014</v>
+        <v>0.4563758389261745</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3866666666666667</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K13">
-        <v>0.7887323943661971</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3805555555555555</v>
+        <v>0.3944444444444444</v>
       </c>
       <c r="C14">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D14">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7875</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2261904761904762</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7625</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1256,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1528150134048257</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C16">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K16">
-        <v>0.7735849056603774</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1314,37 +1305,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01391231028667791</v>
+        <v>0.0139005897219882</v>
       </c>
       <c r="C17">
         <v>33</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F17">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,37 +1355,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01063144329896907</v>
+        <v>0.009351821992905514</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F18">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>0.725</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,37 +1405,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00602878257487359</v>
+        <v>0.005630404182585964</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="F19">
-        <v>0.5700000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>5111</v>
+        <v>4945</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>0.717948717948718</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,37 +1455,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005433688871000202</v>
+        <v>0.005446411204045905</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>4942</v>
+        <v>5113</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1506,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1514,13 +1505,13 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1532,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1540,13 +1531,13 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1558,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1566,13 +1557,13 @@
         <v>47</v>
       </c>
       <c r="K23">
-        <v>0.6323529411764706</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1584,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1592,25 +1583,25 @@
         <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1618,13 +1609,13 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1636,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1644,13 +1635,13 @@
         <v>50</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1662,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1670,13 +1661,13 @@
         <v>51</v>
       </c>
       <c r="K27">
-        <v>0.5898305084745763</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L27">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1688,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1696,13 +1687,13 @@
         <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5690376569037657</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L28">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="M28">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1714,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1722,25 +1713,25 @@
         <v>53</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.02671118530884808</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1748,129 +1739,25 @@
         <v>54</v>
       </c>
       <c r="K30">
-        <v>0.5280898876404494</v>
+        <v>0.0101427498121713</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.4901960784313725</v>
-      </c>
-      <c r="L31">
-        <v>25</v>
-      </c>
-      <c r="M31">
-        <v>25</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32">
-        <v>0.3472222222222222</v>
-      </c>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>26</v>
-      </c>
-      <c r="N32">
-        <v>0.96</v>
-      </c>
-      <c r="O32">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33">
-        <v>0.02587646076794658</v>
-      </c>
-      <c r="L33">
-        <v>31</v>
-      </c>
-      <c r="M33">
-        <v>33</v>
-      </c>
-      <c r="N33">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O33">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34">
-        <v>0.005433688871000202</v>
-      </c>
-      <c r="L34">
-        <v>27</v>
-      </c>
-      <c r="M34">
-        <v>54</v>
-      </c>
-      <c r="N34">
-        <v>0.5</v>
-      </c>
-      <c r="O34">
-        <v>0.5</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>4942</v>
+        <v>2635</v>
       </c>
     </row>
   </sheetData>
